--- a/sict/day7/최종Test Folder/template/Template.xlsx
+++ b/sict/day7/최종Test Folder/template/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_sict\_RPA 교육\2022.11.21 교육자료\02.교육내용\커리큘럼(10일)\9일(최종Test, 2일소요)\최종Test Folder\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B08125-2A86-474C-B0C7-B2CA5EE1D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F173ED-D448-46B5-9D81-A14D1E1D183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
   <sheets>
     <sheet name="확진자 자료" sheetId="3" r:id="rId1"/>
@@ -198,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,9 +208,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,11 +223,17 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -548,116 +551,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477306A-D301-450E-9D52-D9E39890BC2C}">
-  <dimension ref="A2:M39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="10" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="51.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="8"/>
+    <col min="1" max="1" width="11.69921875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="14.69921875" style="7" customWidth="1"/>
+    <col min="5" max="10" width="15.69921875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="51.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="L2" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L3" s="5" t="s">
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L4" s="5" t="s">
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L5" s="5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="L5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L6" s="5" t="s">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L7" s="5" t="s">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="L7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -665,11 +732,11 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -677,11 +744,11 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -689,11 +756,11 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -701,11 +768,11 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -713,11 +780,11 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -725,11 +792,11 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -737,11 +804,11 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -749,11 +816,11 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -761,11 +828,11 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -773,11 +840,11 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -785,11 +852,11 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -797,11 +864,11 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -809,11 +876,11 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -821,11 +888,11 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -833,11 +900,11 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -845,11 +912,11 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -857,11 +924,11 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -869,11 +936,11 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -881,11 +948,11 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -893,11 +960,11 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -905,11 +972,11 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -917,11 +984,11 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -929,11 +996,11 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -941,11 +1008,11 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -953,11 +1020,11 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -965,11 +1032,11 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -977,11 +1044,11 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -989,11 +1056,11 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -1001,11 +1068,11 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>

--- a/sict/day7/최종Test Folder/template/Template.xlsx
+++ b/sict/day7/최종Test Folder/template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F173ED-D448-46B5-9D81-A14D1E1D183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E64594-757B-41A3-9EA8-3183FED6672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
+    <workbookView xWindow="768" yWindow="684" windowWidth="19356" windowHeight="10800" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
   <sheets>
     <sheet name="확진자 자료" sheetId="3" r:id="rId1"/>
@@ -187,18 +187,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,9 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -236,8 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+  <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -553,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477306A-D301-450E-9D52-D9E39890BC2C}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -563,7 +556,7 @@
     <col min="2" max="4" width="14.69921875" style="7" customWidth="1"/>
     <col min="5" max="10" width="15.69921875" style="7" customWidth="1"/>
     <col min="12" max="12" width="51.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" style="7"/>
+    <col min="13" max="13" width="9.19921875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -606,7 +599,7 @@
       <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4"/>
@@ -621,7 +614,7 @@
       <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5"/>
@@ -636,7 +629,7 @@
       <c r="L5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6"/>
@@ -651,7 +644,7 @@
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7"/>
@@ -666,7 +659,6 @@
       <c r="L7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -709,376 +701,376 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="L9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sict/day7/최종Test Folder/template/Template.xlsx
+++ b/sict/day7/최종Test Folder/template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E64594-757B-41A3-9EA8-3183FED6672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A00D048-E6B1-4000-8AD6-6A0B8224D43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="684" windowWidth="19356" windowHeight="10800" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
+    <workbookView xWindow="1572" yWindow="996" windowWidth="13392" windowHeight="10800" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
   <sheets>
     <sheet name="확진자 자료" sheetId="3" r:id="rId1"/>
@@ -112,8 +112,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -226,7 +227,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,7 +548,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -556,7 +557,7 @@
     <col min="2" max="4" width="14.69921875" style="7" customWidth="1"/>
     <col min="5" max="10" width="15.69921875" style="7" customWidth="1"/>
     <col min="12" max="12" width="51.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -694,7 +695,7 @@
       <c r="L8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
@@ -710,7 +711,6 @@
       <c r="L9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>

--- a/sict/day7/최종Test Folder/template/Template.xlsx
+++ b/sict/day7/최종Test Folder/template/Template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jun\learning\learning-uipath\sict\day7\최종Test Folder\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A00D048-E6B1-4000-8AD6-6A0B8224D43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1572" yWindow="996" windowWidth="13392" windowHeight="10800" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
+    <workbookView xWindow="1575" yWindow="990" windowWidth="13395" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="확진자 자료" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -221,14 +220,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,23 +543,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477306A-D301-450E-9D52-D9E39890BC2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="14.69921875" style="7" customWidth="1"/>
-    <col min="5" max="10" width="15.69921875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="51.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="2" max="4" width="14.75" style="7" customWidth="1"/>
+    <col min="5" max="10" width="15.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="51.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -571,7 +570,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2"/>
@@ -585,9 +584,11 @@
       <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M2" s="8">
+        <v>14523453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -600,9 +601,9 @@
       <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -615,9 +616,9 @@
       <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -630,9 +631,9 @@
       <c r="L5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -645,9 +646,9 @@
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -660,8 +661,9 @@
       <c r="L7" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -697,380 +699,381 @@
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="L9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
